--- a/docs/Simple_I2C_Wishbone_Slave_Memory_Map.xlsx
+++ b/docs/Simple_I2C_Wishbone_Slave_Memory_Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\RVfpga_VeeRwolf_EL2_Simple_I2C_wishbone_SoC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1411C700-0ABD-4393-8ED4-59E081EFB7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5501FE71-29D1-4E07-B64D-341B9F4E10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5148" yWindow="3900" windowWidth="23040" windowHeight="12120" xr2:uid="{C24D98B8-C2CC-4F85-A0B0-9256F2C17FD1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Register</t>
   </si>
@@ -83,6 +83,9 @@
     <t>Write</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Control Register</t>
   </si>
   <si>
@@ -117,6 +120,42 @@
   </si>
   <si>
     <t>Simple I2C Wishbone Slave Register Map</t>
+  </si>
+  <si>
+    <t>Control Register Bit-level Breakdown</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>ld_reg_addr</t>
+  </si>
+  <si>
+    <t>ld_slave_addr</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start </t>
+  </si>
+  <si>
+    <t>Status Register Bit-level Breakdown</t>
+  </si>
+  <si>
+    <t>nack</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>busy</t>
   </si>
 </sst>
 </file>
@@ -154,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -328,11 +367,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,9 +516,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,6 +543,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,7 +914,7 @@
   <dimension ref="B1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,6 +923,8 @@
     <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.88671875" customWidth="1"/>
@@ -740,50 +932,69 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="B2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="I2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
       <c r="R2" s="7"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="21">
+        <v>7</v>
+      </c>
+      <c r="J3" s="22">
+        <v>6</v>
+      </c>
+      <c r="K3" s="22">
+        <v>5</v>
+      </c>
+      <c r="L3" s="22">
+        <v>4</v>
+      </c>
+      <c r="M3" s="22">
+        <v>3</v>
+      </c>
+      <c r="N3" s="22">
+        <v>2</v>
+      </c>
+      <c r="O3" s="22">
+        <v>1</v>
+      </c>
+      <c r="P3" s="23">
+        <v>0</v>
+      </c>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -797,16 +1008,36 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -820,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -830,9 +1061,9 @@
       <c r="L5" s="1"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -844,19 +1075,25 @@
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="I6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -868,18 +1105,38 @@
         <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="I7" s="21">
+        <v>7</v>
+      </c>
+      <c r="J7" s="22">
+        <v>6</v>
+      </c>
+      <c r="K7" s="22">
+        <v>5</v>
+      </c>
+      <c r="L7" s="22">
+        <v>4</v>
+      </c>
+      <c r="M7" s="22">
+        <v>3</v>
+      </c>
+      <c r="N7" s="22">
+        <v>2</v>
+      </c>
+      <c r="O7" s="22">
+        <v>1</v>
+      </c>
+      <c r="P7" s="23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -890,22 +1147,34 @@
       <c r="E8" s="2">
         <v>8</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>23</v>
+      <c r="F8" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="I8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>14</v>
@@ -913,8 +1182,8 @@
       <c r="E9" s="5">
         <v>8</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>22</v>
+      <c r="F9" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -989,8 +1258,11 @@
       <c r="L14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I6:P6"/>
+    <mergeCell ref="I8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
